--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K601"/>
+  <dimension ref="A1:K609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21674,6 +21674,306 @@
         <v>370.5945454545454</v>
       </c>
       <c r="K601" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>352.5009090909091</v>
+      </c>
+      <c r="C602" t="n">
+        <v>348.04</v>
+      </c>
+      <c r="D602" t="n">
+        <v>344.7188235294118</v>
+      </c>
+      <c r="E602" t="n">
+        <v>347.79</v>
+      </c>
+      <c r="F602" t="n">
+        <v>350.35</v>
+      </c>
+      <c r="G602" t="n">
+        <v>356.45</v>
+      </c>
+      <c r="H602" t="n">
+        <v>354.0623076923077</v>
+      </c>
+      <c r="I602" t="n">
+        <v>348.8323076923077</v>
+      </c>
+      <c r="J602" t="n">
+        <v>349.1509090909091</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>364.8</v>
+      </c>
+      <c r="C603" t="n">
+        <v>359.05</v>
+      </c>
+      <c r="D603" t="n">
+        <v>361.5352941176471</v>
+      </c>
+      <c r="E603" t="n">
+        <v>357.62</v>
+      </c>
+      <c r="F603" t="n">
+        <v>364.18</v>
+      </c>
+      <c r="G603" t="n">
+        <v>367.76</v>
+      </c>
+      <c r="H603" t="n">
+        <v>367.7961538461539</v>
+      </c>
+      <c r="I603" t="n">
+        <v>363.8261538461539</v>
+      </c>
+      <c r="J603" t="n">
+        <v>364.07</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>365.1818181818182</v>
+      </c>
+      <c r="C604" t="n">
+        <v>359.9866666666666</v>
+      </c>
+      <c r="D604" t="n">
+        <v>367.0982352941176</v>
+      </c>
+      <c r="E604" t="n">
+        <v>365.8266666666667</v>
+      </c>
+      <c r="F604" t="n">
+        <v>370.5366666666666</v>
+      </c>
+      <c r="G604" t="n">
+        <v>370.1866666666667</v>
+      </c>
+      <c r="H604" t="n">
+        <v>375.4253846153846</v>
+      </c>
+      <c r="I604" t="n">
+        <v>367.0353846153847</v>
+      </c>
+      <c r="J604" t="n">
+        <v>368.6318181818182</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>342.9609090909091</v>
+      </c>
+      <c r="C605" t="n">
+        <v>345.3833333333333</v>
+      </c>
+      <c r="D605" t="n">
+        <v>350.1894117647059</v>
+      </c>
+      <c r="E605" t="n">
+        <v>351.5333333333334</v>
+      </c>
+      <c r="F605" t="n">
+        <v>356.5533333333333</v>
+      </c>
+      <c r="G605" t="n">
+        <v>355.9133333333334</v>
+      </c>
+      <c r="H605" t="n">
+        <v>360.7838461538461</v>
+      </c>
+      <c r="I605" t="n">
+        <v>352.7838461538461</v>
+      </c>
+      <c r="J605" t="n">
+        <v>354.4809090909091</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>361.180909090909</v>
+      </c>
+      <c r="C606" t="n">
+        <v>360.08</v>
+      </c>
+      <c r="D606" t="n">
+        <v>366.3682352941176</v>
+      </c>
+      <c r="E606" t="n">
+        <v>366.99</v>
+      </c>
+      <c r="F606" t="n">
+        <v>370</v>
+      </c>
+      <c r="G606" t="n">
+        <v>374.92</v>
+      </c>
+      <c r="H606" t="n">
+        <v>371.82</v>
+      </c>
+      <c r="I606" t="n">
+        <v>373.75</v>
+      </c>
+      <c r="J606" t="n">
+        <v>364.7209090909091</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>365.259090909091</v>
+      </c>
+      <c r="C607" t="n">
+        <v>352.4933333333333</v>
+      </c>
+      <c r="D607" t="n">
+        <v>360.0523529411765</v>
+      </c>
+      <c r="E607" t="n">
+        <v>361.7833333333333</v>
+      </c>
+      <c r="F607" t="n">
+        <v>367.1433333333333</v>
+      </c>
+      <c r="G607" t="n">
+        <v>364.9633333333333</v>
+      </c>
+      <c r="H607" t="n">
+        <v>371.4915384615384</v>
+      </c>
+      <c r="I607" t="n">
+        <v>363.0315384615385</v>
+      </c>
+      <c r="J607" t="n">
+        <v>361.139090909091</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>364.5427272727272</v>
+      </c>
+      <c r="C608" t="n">
+        <v>365.17</v>
+      </c>
+      <c r="D608" t="inlineStr"/>
+      <c r="E608" t="inlineStr"/>
+      <c r="F608" t="inlineStr"/>
+      <c r="G608" t="inlineStr"/>
+      <c r="H608" t="inlineStr"/>
+      <c r="I608" t="n">
+        <v>392.5830769230769</v>
+      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>361.069090909091</v>
+      </c>
+      <c r="C609" t="n">
+        <v>357.37</v>
+      </c>
+      <c r="D609" t="n">
+        <v>356.3617647058824</v>
+      </c>
+      <c r="E609" t="n">
+        <v>360.78</v>
+      </c>
+      <c r="F609" t="n">
+        <v>366.32</v>
+      </c>
+      <c r="G609" t="n">
+        <v>364.73</v>
+      </c>
+      <c r="H609" t="n">
+        <v>369.74</v>
+      </c>
+      <c r="I609" t="n">
+        <v>364.49</v>
+      </c>
+      <c r="J609" t="n">
+        <v>367.8690909090909</v>
+      </c>
+      <c r="K609" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21690,7 +21990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B619"/>
+  <dimension ref="A1:B627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27888,6 +28188,86 @@
       </c>
       <c r="B619" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -28056,28 +28436,28 @@
         <v>0.0593</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2537564611909619</v>
+        <v>-0.2713528337769635</v>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K2" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05699963653271256</v>
+        <v>0.06520241360835577</v>
       </c>
       <c r="M2" t="n">
-        <v>5.680939403647099</v>
+        <v>5.690854613086977</v>
       </c>
       <c r="N2" t="n">
-        <v>55.94787315922852</v>
+        <v>56.42200187729057</v>
       </c>
       <c r="O2" t="n">
-        <v>7.47983109162423</v>
+        <v>7.51145803937495</v>
       </c>
       <c r="P2" t="n">
-        <v>371.5961699261484</v>
+        <v>371.7696387529311</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28133,28 +28513,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2011678497624201</v>
+        <v>-0.2204146502056132</v>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K3" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05264959231618105</v>
+        <v>0.06268099555043183</v>
       </c>
       <c r="M3" t="n">
-        <v>4.67398265367628</v>
+        <v>4.717371125138715</v>
       </c>
       <c r="N3" t="n">
-        <v>37.86448483458108</v>
+        <v>38.45506408153707</v>
       </c>
       <c r="O3" t="n">
-        <v>6.153412454450057</v>
+        <v>6.201214726288478</v>
       </c>
       <c r="P3" t="n">
-        <v>367.039122425965</v>
+        <v>367.2296463484828</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28210,28 +28590,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1689634797387313</v>
+        <v>-0.1849442186431592</v>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K4" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04090752547454446</v>
+        <v>0.04823487751229449</v>
       </c>
       <c r="M4" t="n">
-        <v>4.377321143569697</v>
+        <v>4.428363017966053</v>
       </c>
       <c r="N4" t="n">
-        <v>34.74889504175212</v>
+        <v>35.54760324846026</v>
       </c>
       <c r="O4" t="n">
-        <v>5.894819339195402</v>
+        <v>5.962181081488573</v>
       </c>
       <c r="P4" t="n">
-        <v>368.232214071927</v>
+        <v>368.3916649935101</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28287,28 +28667,28 @@
         <v>0.0824</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2120506574805456</v>
+        <v>-0.2229287139835365</v>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K5" t="n">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06453500255315014</v>
+        <v>0.07112100752947637</v>
       </c>
       <c r="M5" t="n">
-        <v>4.277369081366741</v>
+        <v>4.305920073341529</v>
       </c>
       <c r="N5" t="n">
-        <v>33.55632140291864</v>
+        <v>33.90974404419759</v>
       </c>
       <c r="O5" t="n">
-        <v>5.792781836295808</v>
+        <v>5.823207367439149</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2917210482408</v>
+        <v>368.4004779524581</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28364,28 +28744,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2518251225416821</v>
+        <v>-0.2543639300706519</v>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K6" t="n">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07200199487277748</v>
+        <v>0.07421528727595605</v>
       </c>
       <c r="M6" t="n">
-        <v>4.522897709667054</v>
+        <v>4.537466290066709</v>
       </c>
       <c r="N6" t="n">
-        <v>41.86745361125706</v>
+        <v>41.96216814776867</v>
       </c>
       <c r="O6" t="n">
-        <v>6.470506441636316</v>
+        <v>6.477821250063069</v>
       </c>
       <c r="P6" t="n">
-        <v>370.916998661401</v>
+        <v>370.9422342037832</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28441,28 +28821,28 @@
         <v>0.07969999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09240813678713748</v>
+        <v>-0.1030752358609105</v>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K7" t="n">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01019082254415693</v>
+        <v>0.01278991235713123</v>
       </c>
       <c r="M7" t="n">
-        <v>4.587383034111621</v>
+        <v>4.615474974256016</v>
       </c>
       <c r="N7" t="n">
-        <v>43.80187987815975</v>
+        <v>43.969600769873</v>
       </c>
       <c r="O7" t="n">
-        <v>6.618298865883872</v>
+        <v>6.630957756604471</v>
       </c>
       <c r="P7" t="n">
-        <v>371.196583383037</v>
+        <v>371.3011850357304</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28518,28 +28898,28 @@
         <v>0.0687</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.06511694376144633</v>
+        <v>-0.0757724306887213</v>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K8" t="n">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005657708528291061</v>
+        <v>0.007703572147155557</v>
       </c>
       <c r="M8" t="n">
-        <v>4.494514005199211</v>
+        <v>4.510211337751412</v>
       </c>
       <c r="N8" t="n">
-        <v>39.39625329310622</v>
+        <v>39.70601902405814</v>
       </c>
       <c r="O8" t="n">
-        <v>6.276643473474196</v>
+        <v>6.301271222861157</v>
       </c>
       <c r="P8" t="n">
-        <v>372.7245930612563</v>
+        <v>372.8289573668538</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28595,28 +28975,28 @@
         <v>0.0678</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0967067513865256</v>
+        <v>-0.09570424724525189</v>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K9" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0106846066520927</v>
+        <v>0.0102375234849742</v>
       </c>
       <c r="M9" t="n">
-        <v>4.981026553105995</v>
+        <v>5.050127080122501</v>
       </c>
       <c r="N9" t="n">
-        <v>45.86482013283881</v>
+        <v>47.80116276929841</v>
       </c>
       <c r="O9" t="n">
-        <v>6.772357058870922</v>
+        <v>6.913838497484477</v>
       </c>
       <c r="P9" t="n">
-        <v>367.9850019402694</v>
+        <v>367.97458090815</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28672,28 +29052,28 @@
         <v>0.0576</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2485583731831971</v>
+        <v>-0.2436900368902502</v>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K10" t="n">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03465197770510031</v>
+        <v>0.03410130263357258</v>
       </c>
       <c r="M10" t="n">
-        <v>6.911205086734305</v>
+        <v>6.89944842456946</v>
       </c>
       <c r="N10" t="n">
-        <v>92.35437214301189</v>
+        <v>91.6619428030296</v>
       </c>
       <c r="O10" t="n">
-        <v>9.610118216911376</v>
+        <v>9.574024378652355</v>
       </c>
       <c r="P10" t="n">
-        <v>366.0736785026324</v>
+        <v>366.0259814630148</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28730,7 +29110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K601"/>
+  <dimension ref="A1:K609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58567,6 +58947,438 @@
         </is>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-36.62218625210254,174.7659628203344</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-36.621905767393116,174.76679358504913</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>-36.621600704052625,174.76762701309787</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>-36.62112898710293,174.76832860576644</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>-36.62066566651059,174.769023754675</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>-36.62013121744637,174.76963494383872</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>-36.61960144763816,174.77025736111918</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>-36.61899685982692,174.77076427522633</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>-36.618371935742374,174.7712122596917</t>
+        </is>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-36.622087249992035,174.7659009824887</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-36.62181748093001,174.7667374011755</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-36.621473776874794,174.76752427670903</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>-36.62105979675223,174.76825997061437</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-36.620572004735095,174.76892173883635</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>-36.62006114440533,174.76954311666302</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>-36.61953027293947,174.77013174242543</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>-36.618930492857785,174.77061825554722</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>-36.618305899996805,174.7710669689905</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-36.62208417652802,174.76589906277107</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-36.62180997003055,174.76673262138485</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-36.62143178894448,174.76749029126486</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>-36.621002032512834,174.76820267001582</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>-36.62052895505115,174.76887484949938</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>-36.62004610956669,174.7695234143021</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>-36.619490734923446,174.77006196061498</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>-36.61891628787793,174.770587002034</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>-36.6182857081757,174.77102254342577</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-36.62226304475492,174.7660107860276</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-36.62192707054046,174.76680714200106</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-36.62155941321594,174.7675935917501</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-36.62110263893451,174.76830246900184</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-36.620623655299404,174.76897799627469</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-36.62013454245469,174.76963930110054</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>-36.619566613751864,174.77019588152606</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>-36.618979369227304,174.7707257925896</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>-36.6183483438084,174.77116035305352</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-36.62211638203839,174.76591917867734</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-36.62180922161351,174.76673214510683</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-36.621437298834245,174.76749475102122</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-36.62099384415962,174.76819454739532</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-36.62053258955593,174.76887880816713</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>-36.620016783360356,174.7694849838949</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>-36.61950941961131,174.77009493775336</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>-36.61888656702832,174.77052161091098</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>-36.61830301890102,174.77106063006835</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-36.62208355451745,174.7658986742568</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-36.62187005721986,174.76677085973657</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-36.62148496980646,174.7675333363859</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-36.621030492314524,174.76823090137225</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>-36.62055193595469,174.76889988008804</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>-36.62007847163948,174.76956582310217</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>-36.61951112184292,174.77009794207208</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>-36.61893401005307,174.77062599401472</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>-36.6183188729712,174.77109551185237</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-36.62208932092133,174.76590227601284</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-36.62176840615227,174.76670617095917</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr"/>
+      <c r="E608" t="inlineStr"/>
+      <c r="F608" t="inlineStr"/>
+      <c r="G608" t="inlineStr"/>
+      <c r="H608" t="inlineStr"/>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>-36.61880320612751,174.7703382028949</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-36.62211728212417,174.7659197408808</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-36.62183095243593,174.76674597418312</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-36.62151282559574,174.7675558831697</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-36.62103755447355,174.7682379068481</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-36.62055751187049,174.76890595332745</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-36.62007991729646,174.7695677175612</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>-36.61952019908124,174.77011396276205</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>-36.61892755448419,174.7706117905938</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>-36.61828908421075,174.77102997129364</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -28281,7 +28281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28372,35 +28372,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28459,27 +28464,28 @@
       <c r="P2" t="n">
         <v>371.7696387529311</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.76773520699282 -36.62502370861356, 174.76310850191334 -36.6176161911201)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7677352069928</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.62502370861356</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7631085019133</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.6176161911201</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7654218544531</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.62131994986683</v>
       </c>
     </row>
@@ -28536,27 +28542,28 @@
       <c r="P3" t="n">
         <v>367.2296463484828</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.76856969590492 -36.624696597864045, 174.76387379415723 -36.61731733893218)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7685696959049</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.62469659786404</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7638737941572</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.61731733893218</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7662217450311</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.62100696839811</v>
       </c>
     </row>
@@ -28613,27 +28620,28 @@
       <c r="P4" t="n">
         <v>368.3916649935101</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.76973306944018 -36.624202547019, 174.76411038047095 -36.61725573135326)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7697330694402</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.624202547019</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.764110380471</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.61725573135326</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7669217249556</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.62072913918613</v>
       </c>
     </row>
@@ -28690,27 +28698,28 @@
       <c r="P5" t="n">
         <v>368.4004779524581</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.77075702916272 -36.623576946003425, 174.7643300207159 -36.61709777625188)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7707570291627</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.62357694600342</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7643300207159</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.61709777625188</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7675435249393</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.62033736112765</v>
       </c>
     </row>
@@ -28767,27 +28776,28 @@
       <c r="P6" t="n">
         <v>370.9422342037832</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.77160816489436 -36.62303833192341, 174.76481781117982 -36.61680387913344)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7716081648944</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.62303833192341</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7648178111798</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.61680387913344</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7682129880371</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.61992110552843</v>
       </c>
     </row>
@@ -28844,27 +28854,28 @@
       <c r="P7" t="n">
         <v>371.3011850357304</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.77252908697537 -36.622339625450486, 174.76505397115486 -36.616635243740426)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7725290869754</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.62233962545049</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7650539711549</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.61663524374043</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7687915290651</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.61948743459546</v>
       </c>
     </row>
@@ -28921,27 +28932,28 @@
       <c r="P8" t="n">
         <v>372.8289573668538</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.77349592419137 -36.621436302644454, 174.76507292343683 -36.616663756981545)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7734959241914</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.62143630264445</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7650729234368</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.61666375698154</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7692844238141</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.619050029813</v>
       </c>
     </row>
@@ -28998,27 +29010,28 @@
       <c r="P9" t="n">
         <v>367.97458090815</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.7741614969706 -36.62054083682528, 174.76519208527463 -36.61646404905145)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7741614969706</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.62054083682528</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7651920852746</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.61646404905145</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.7696767911226</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.61850244293836</v>
       </c>
     </row>
@@ -29075,27 +29088,28 @@
       <c r="P10" t="n">
         <v>366.0259814630148</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.77461256174013 -36.61991731501647, 174.76564318375566 -36.615840536611145)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.7746125617401</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.61991731501647</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.7656431837557</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.61584053661115</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7701278727479</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.61787892581381</v>
       </c>
     </row>

--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K609"/>
+  <dimension ref="A1:K614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21976,6 +21976,201 @@
       <c r="K609" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>373.93</v>
+      </c>
+      <c r="C610" t="n">
+        <v>364.3766666666667</v>
+      </c>
+      <c r="D610" t="n">
+        <v>364.0294117647059</v>
+      </c>
+      <c r="E610" t="n">
+        <v>362.8266666666667</v>
+      </c>
+      <c r="F610" t="n">
+        <v>369.2066666666667</v>
+      </c>
+      <c r="G610" t="n">
+        <v>369.1666666666667</v>
+      </c>
+      <c r="H610" t="n">
+        <v>374.8784615384615</v>
+      </c>
+      <c r="I610" t="n">
+        <v>366.6484615384616</v>
+      </c>
+      <c r="J610" t="n">
+        <v>366.86</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>363.6481818181818</v>
+      </c>
+      <c r="C611" t="n">
+        <v>361.8433333333333</v>
+      </c>
+      <c r="D611" t="n">
+        <v>364.8411764705882</v>
+      </c>
+      <c r="E611" t="n">
+        <v>368.4433333333333</v>
+      </c>
+      <c r="F611" t="n">
+        <v>367.9833333333333</v>
+      </c>
+      <c r="G611" t="n">
+        <v>374.4433333333333</v>
+      </c>
+      <c r="H611" t="n">
+        <v>374.2223076923077</v>
+      </c>
+      <c r="I611" t="n">
+        <v>378.7123076923077</v>
+      </c>
+      <c r="J611" t="n">
+        <v>364.5381818181818</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>368.3027272727272</v>
+      </c>
+      <c r="C612" t="n">
+        <v>362.31</v>
+      </c>
+      <c r="D612" t="n">
+        <v>360.3905882352942</v>
+      </c>
+      <c r="E612" t="n">
+        <v>360.7</v>
+      </c>
+      <c r="F612" t="n">
+        <v>365.65</v>
+      </c>
+      <c r="G612" t="n">
+        <v>371.08</v>
+      </c>
+      <c r="H612" t="n">
+        <v>372.4884615384616</v>
+      </c>
+      <c r="I612" t="n">
+        <v>363.5084615384616</v>
+      </c>
+      <c r="J612" t="n">
+        <v>361.5927272727273</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>363.7854545454546</v>
+      </c>
+      <c r="C613" t="n">
+        <v>358.6466666666666</v>
+      </c>
+      <c r="D613" t="n">
+        <v>362.864705882353</v>
+      </c>
+      <c r="E613" t="n">
+        <v>361.5266666666666</v>
+      </c>
+      <c r="F613" t="n">
+        <v>368.1066666666666</v>
+      </c>
+      <c r="G613" t="n">
+        <v>366.4666666666666</v>
+      </c>
+      <c r="H613" t="n">
+        <v>372.9769230769231</v>
+      </c>
+      <c r="I613" t="n">
+        <v>367.4669230769231</v>
+      </c>
+      <c r="J613" t="n">
+        <v>361.6454545454546</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>361.9618181818182</v>
+      </c>
+      <c r="C614" t="n">
+        <v>357.94</v>
+      </c>
+      <c r="D614" t="n">
+        <v>363.5017647058824</v>
+      </c>
+      <c r="E614" t="n">
+        <v>361.8</v>
+      </c>
+      <c r="F614" t="n">
+        <v>364.52</v>
+      </c>
+      <c r="G614" t="n">
+        <v>366.86</v>
+      </c>
+      <c r="H614" t="n">
+        <v>368.1961538461539</v>
+      </c>
+      <c r="I614" t="n">
+        <v>370.8661538461538</v>
+      </c>
+      <c r="J614" t="n">
+        <v>355.8718181818182</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -21990,7 +22185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B627"/>
+  <dimension ref="A1:B632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28268,6 +28463,56 @@
       </c>
       <c r="B627" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -28441,28 +28686,28 @@
         <v>0.0593</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2713528337769635</v>
+        <v>-0.2684050711542589</v>
       </c>
       <c r="J2" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K2" t="n">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06520241360835577</v>
+        <v>0.06492743540856516</v>
       </c>
       <c r="M2" t="n">
-        <v>5.690854613086977</v>
+        <v>5.666303238799111</v>
       </c>
       <c r="N2" t="n">
-        <v>56.42200187729057</v>
+        <v>56.05559954867645</v>
       </c>
       <c r="O2" t="n">
-        <v>7.51145803937495</v>
+        <v>7.487028753028564</v>
       </c>
       <c r="P2" t="n">
-        <v>371.7696387529311</v>
+        <v>371.7404128306642</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28519,28 +28764,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2204146502056132</v>
+        <v>-0.2215664236318678</v>
       </c>
       <c r="J3" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K3" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06268099555043183</v>
+        <v>0.06446885267029379</v>
       </c>
       <c r="M3" t="n">
-        <v>4.717371125138715</v>
+        <v>4.690843088720986</v>
       </c>
       <c r="N3" t="n">
-        <v>38.45506408153707</v>
+        <v>38.12399210479037</v>
       </c>
       <c r="O3" t="n">
-        <v>6.201214726288478</v>
+        <v>6.174462900106403</v>
       </c>
       <c r="P3" t="n">
-        <v>367.2296463484828</v>
+        <v>367.2412866577855</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28597,28 +28842,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1849442186431592</v>
+        <v>-0.1859756602520817</v>
       </c>
       <c r="J4" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K4" t="n">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04823487751229449</v>
+        <v>0.04966184844300936</v>
       </c>
       <c r="M4" t="n">
-        <v>4.428363017966053</v>
+        <v>4.396528360121682</v>
       </c>
       <c r="N4" t="n">
-        <v>35.54760324846026</v>
+        <v>35.22164279223699</v>
       </c>
       <c r="O4" t="n">
-        <v>5.962181081488573</v>
+        <v>5.934782455342149</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3916649935101</v>
+        <v>368.4020954182665</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28675,28 +28920,28 @@
         <v>0.0824</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2229287139835365</v>
+        <v>-0.2222401239470045</v>
       </c>
       <c r="J5" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K5" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07112100752947637</v>
+        <v>0.07191061344064176</v>
       </c>
       <c r="M5" t="n">
-        <v>4.305920073341529</v>
+        <v>4.282737077524776</v>
       </c>
       <c r="N5" t="n">
-        <v>33.90974404419759</v>
+        <v>33.65342813925326</v>
       </c>
       <c r="O5" t="n">
-        <v>5.823207367439149</v>
+        <v>5.801157482714399</v>
       </c>
       <c r="P5" t="n">
-        <v>368.4004779524581</v>
+        <v>368.3935449698549</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28753,28 +28998,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2543639300706519</v>
+        <v>-0.2492525681948145</v>
       </c>
       <c r="J6" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K6" t="n">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07421528727595605</v>
+        <v>0.07268573641233578</v>
       </c>
       <c r="M6" t="n">
-        <v>4.537466290066709</v>
+        <v>4.515983655694286</v>
       </c>
       <c r="N6" t="n">
-        <v>41.96216814776867</v>
+        <v>41.64893107661539</v>
       </c>
       <c r="O6" t="n">
-        <v>6.477821250063069</v>
+        <v>6.453598304559666</v>
       </c>
       <c r="P6" t="n">
-        <v>370.9422342037832</v>
+        <v>370.8904924483982</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28831,28 +29076,28 @@
         <v>0.07969999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1030752358609105</v>
+        <v>-0.1012515820810567</v>
       </c>
       <c r="J7" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K7" t="n">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01278991235713123</v>
+        <v>0.01257756278932931</v>
       </c>
       <c r="M7" t="n">
-        <v>4.615474974256016</v>
+        <v>4.592833358989308</v>
       </c>
       <c r="N7" t="n">
-        <v>43.969600769873</v>
+        <v>43.62115678861947</v>
       </c>
       <c r="O7" t="n">
-        <v>6.630957756604471</v>
+        <v>6.604631465011463</v>
       </c>
       <c r="P7" t="n">
-        <v>371.3011850357304</v>
+        <v>371.283151471714</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28909,28 +29154,28 @@
         <v>0.0687</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0757724306887213</v>
+        <v>-0.07245609291140019</v>
       </c>
       <c r="J8" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K8" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007703572147155557</v>
+        <v>0.007185000508580508</v>
       </c>
       <c r="M8" t="n">
-        <v>4.510211337751412</v>
+        <v>4.490194032914593</v>
       </c>
       <c r="N8" t="n">
-        <v>39.70601902405814</v>
+        <v>39.37783588061352</v>
       </c>
       <c r="O8" t="n">
-        <v>6.301271222861157</v>
+        <v>6.275176163313148</v>
       </c>
       <c r="P8" t="n">
-        <v>372.8289573668538</v>
+        <v>372.7961261006042</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28987,28 +29232,28 @@
         <v>0.0678</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09570424724525189</v>
+        <v>-0.08753871654289595</v>
       </c>
       <c r="J9" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K9" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0102375234849742</v>
+        <v>0.008690692881532236</v>
       </c>
       <c r="M9" t="n">
-        <v>5.050127080122501</v>
+        <v>5.046472602687696</v>
       </c>
       <c r="N9" t="n">
-        <v>47.80116276929841</v>
+        <v>47.7362879752388</v>
       </c>
       <c r="O9" t="n">
-        <v>6.913838497484477</v>
+        <v>6.909145242013573</v>
       </c>
       <c r="P9" t="n">
-        <v>367.97458090815</v>
+        <v>367.8941095473493</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29065,28 +29310,28 @@
         <v>0.0576</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2436900368902502</v>
+        <v>-0.2389954307525906</v>
       </c>
       <c r="J10" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K10" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03410130263357258</v>
+        <v>0.03347124893435749</v>
       </c>
       <c r="M10" t="n">
-        <v>6.89944842456946</v>
+        <v>6.865196433949809</v>
       </c>
       <c r="N10" t="n">
-        <v>91.6619428030296</v>
+        <v>90.87358065164088</v>
       </c>
       <c r="O10" t="n">
-        <v>9.574024378652355</v>
+        <v>9.532763536962452</v>
       </c>
       <c r="P10" t="n">
-        <v>366.0259814630148</v>
+        <v>365.9798329139961</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29124,7 +29369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K609"/>
+  <dimension ref="A1:K614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59393,6 +59638,291 @@
         </is>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-36.622013757603256,174.76585507842594</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-36.62177476769807,174.76671021931827</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-36.62145495179161,174.76750903949565</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-36.62102314860712,174.76822361660967</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-36.62053796230184,174.76888466011144</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-36.62005242915588,174.76953169578806</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>-36.61949356931985,174.77006696311992</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>-36.61891800051138,174.77059077013436</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>-36.61829355071648,174.77103979839032</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-36.62209652160825,174.7659067736379</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-36.62179508187687,174.76672314685604</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-36.62144882475935,174.76750408021556</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-36.620983614582826,174.7681843999406</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>-36.62054624716575,174.7688936839095</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>-36.62001973663386,174.76948885399796</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>-36.61949696979795,174.77007296471916</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>-36.61886460238052,174.77047328488757</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>-36.618303827700295,174.7710624095702</t>
+        </is>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-36.62205905461724,174.7658833713705</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-36.621791339791436,174.76672076546697</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-36.62148241687686,174.76753127001749</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-36.621038117569285,174.7682384654243</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>-36.620562049356394,174.76891089551884</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>-36.62004057476257,174.7695161612371</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>-36.61950595535051,174.77008882357822</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>-36.618931899055,174.77062134943588</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>-36.61831686505782,174.7710910940825</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-36.62209541662481,174.76590608345353</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-36.62182071516066,174.76673945937745</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-36.62146374275054,174.76751615498586</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-36.62103229891338,174.7682326934706</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>-36.62054541190701,174.76889277415322</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>-36.62006915747724,174.76955361737495</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>-36.61950342392844,174.77008435579813</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>-36.61891437776374,174.77058279944117</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>-36.6183166316731,174.77109058059423</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-36.622110096073385,174.7659152523948</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-36.621826381746494,174.76674306548378</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-36.62145893436246,174.76751226302812</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-36.62103037500291,174.7682307850022</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>-36.620569702130595,174.7689192308579</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>-36.62006672051218,174.76955042385927</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>-36.6195281999653,174.77012808376855</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>-36.6188993317786,174.77054969560197</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>-36.61834218728756,174.7711468075774</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K614"/>
+  <dimension ref="A1:K619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22171,6 +22171,197 @@
       <c r="K614" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>358.9327272727273</v>
+      </c>
+      <c r="C615" t="n">
+        <v>359</v>
+      </c>
+      <c r="D615" t="n">
+        <v>358.82</v>
+      </c>
+      <c r="E615" t="n">
+        <v>365.12</v>
+      </c>
+      <c r="F615" t="n">
+        <v>396.48</v>
+      </c>
+      <c r="G615" t="n">
+        <v>367.96</v>
+      </c>
+      <c r="H615" t="n">
+        <v>378.6561538461538</v>
+      </c>
+      <c r="I615" t="n">
+        <v>367.7361538461539</v>
+      </c>
+      <c r="J615" t="n">
+        <v>349.0827272727273</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>376.6127272727272</v>
+      </c>
+      <c r="C616" t="n">
+        <v>371.66</v>
+      </c>
+      <c r="D616" t="n">
+        <v>370.0829411764706</v>
+      </c>
+      <c r="E616" t="n">
+        <v>359.28</v>
+      </c>
+      <c r="F616" t="n">
+        <v>357.24</v>
+      </c>
+      <c r="G616" t="n">
+        <v>356.16</v>
+      </c>
+      <c r="H616" t="n">
+        <v>358.8153846153846</v>
+      </c>
+      <c r="I616" t="n">
+        <v>361.7053846153846</v>
+      </c>
+      <c r="J616" t="n">
+        <v>335.2527272727273</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr"/>
+      <c r="C617" t="inlineStr"/>
+      <c r="D617" t="n">
+        <v>355.2094117647059</v>
+      </c>
+      <c r="E617" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="F617" t="n">
+        <v>374.44</v>
+      </c>
+      <c r="G617" t="n">
+        <v>375.88</v>
+      </c>
+      <c r="H617" t="n">
+        <v>370.2230769230769</v>
+      </c>
+      <c r="I617" t="n">
+        <v>363.0330769230769</v>
+      </c>
+      <c r="J617" t="n">
+        <v>360.319090909091</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>376.8036363636364</v>
+      </c>
+      <c r="C618" t="n">
+        <v>369.7933333333334</v>
+      </c>
+      <c r="D618" t="n">
+        <v>370.1847058823529</v>
+      </c>
+      <c r="E618" t="n">
+        <v>369.6633333333334</v>
+      </c>
+      <c r="F618" t="n">
+        <v>371.2733333333333</v>
+      </c>
+      <c r="G618" t="n">
+        <v>374.0733333333333</v>
+      </c>
+      <c r="H618" t="n">
+        <v>376.4761538461539</v>
+      </c>
+      <c r="I618" t="n">
+        <v>368.5061538461539</v>
+      </c>
+      <c r="J618" t="n">
+        <v>363.2036363636364</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>369.3218181818182</v>
+      </c>
+      <c r="C619" t="n">
+        <v>365.3933333333333</v>
+      </c>
+      <c r="D619" t="n">
+        <v>366.7547058823529</v>
+      </c>
+      <c r="E619" t="n">
+        <v>359.1433333333333</v>
+      </c>
+      <c r="F619" t="n">
+        <v>361.7033333333333</v>
+      </c>
+      <c r="G619" t="n">
+        <v>368.3933333333333</v>
+      </c>
+      <c r="H619" t="n">
+        <v>365.6546153846153</v>
+      </c>
+      <c r="I619" t="n">
+        <v>367.3846153846154</v>
+      </c>
+      <c r="J619" t="n">
+        <v>357.1118181818182</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -22185,7 +22376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B632"/>
+  <dimension ref="A1:B637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28513,6 +28704,56 @@
       </c>
       <c r="B632" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -28686,28 +28927,28 @@
         <v>0.0593</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2684050711542589</v>
+        <v>-0.2596047452192514</v>
       </c>
       <c r="J2" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K2" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06492743540856516</v>
+        <v>0.06125458601309819</v>
       </c>
       <c r="M2" t="n">
-        <v>5.666303238799111</v>
+        <v>5.683283095649862</v>
       </c>
       <c r="N2" t="n">
-        <v>56.05559954867645</v>
+        <v>56.28040138626849</v>
       </c>
       <c r="O2" t="n">
-        <v>7.487028753028564</v>
+        <v>7.502026485308385</v>
       </c>
       <c r="P2" t="n">
-        <v>371.7404128306642</v>
+        <v>371.65195790695</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28764,28 +29005,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2215664236318678</v>
+        <v>-0.2138206467968842</v>
       </c>
       <c r="J3" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K3" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06446885267029379</v>
+        <v>0.06068742046039721</v>
       </c>
       <c r="M3" t="n">
-        <v>4.690843088720986</v>
+        <v>4.6987255738114</v>
       </c>
       <c r="N3" t="n">
-        <v>38.12399210479037</v>
+        <v>38.19868867296847</v>
       </c>
       <c r="O3" t="n">
-        <v>6.174462900106403</v>
+        <v>6.180508771368945</v>
       </c>
       <c r="P3" t="n">
-        <v>367.2412866577855</v>
+        <v>367.1631728436977</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28842,28 +29083,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1859756602520817</v>
+        <v>-0.1848441747538912</v>
       </c>
       <c r="J4" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K4" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04966184844300936</v>
+        <v>0.04953092427260009</v>
       </c>
       <c r="M4" t="n">
-        <v>4.396528360121682</v>
+        <v>4.41036783948348</v>
       </c>
       <c r="N4" t="n">
-        <v>35.22164279223699</v>
+        <v>35.24609419782132</v>
       </c>
       <c r="O4" t="n">
-        <v>5.934782455342149</v>
+        <v>5.936842106526105</v>
       </c>
       <c r="P4" t="n">
-        <v>368.4020954182665</v>
+        <v>368.3905057815286</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28920,28 +29161,28 @@
         <v>0.0824</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2222401239470045</v>
+        <v>-0.2188698483438282</v>
       </c>
       <c r="J5" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K5" t="n">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07191061344064176</v>
+        <v>0.07075472443096631</v>
       </c>
       <c r="M5" t="n">
-        <v>4.282737077524776</v>
+        <v>4.283881002486122</v>
       </c>
       <c r="N5" t="n">
-        <v>33.65342813925326</v>
+        <v>33.55853528800937</v>
       </c>
       <c r="O5" t="n">
-        <v>5.801157482714399</v>
+        <v>5.792972923120682</v>
       </c>
       <c r="P5" t="n">
-        <v>368.3935449698549</v>
+        <v>368.3592281400864</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28998,28 +29239,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2492525681948145</v>
+        <v>-0.2346267440830239</v>
       </c>
       <c r="J6" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K6" t="n">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07268573641233578</v>
+        <v>0.06282655133208592</v>
       </c>
       <c r="M6" t="n">
-        <v>4.515983655694286</v>
+        <v>4.578049204381545</v>
       </c>
       <c r="N6" t="n">
-        <v>41.64893107661539</v>
+        <v>43.60202305843112</v>
       </c>
       <c r="O6" t="n">
-        <v>6.453598304559666</v>
+        <v>6.603182797593227</v>
       </c>
       <c r="P6" t="n">
-        <v>370.8904924483982</v>
+        <v>370.741592897903</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29076,28 +29317,28 @@
         <v>0.07969999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1012515820810567</v>
+        <v>-0.1015999750986684</v>
       </c>
       <c r="J7" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K7" t="n">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01257756278932931</v>
+        <v>0.0127841005987166</v>
       </c>
       <c r="M7" t="n">
-        <v>4.592833358989308</v>
+        <v>4.599445077737886</v>
       </c>
       <c r="N7" t="n">
-        <v>43.62115678861947</v>
+        <v>43.66160157288395</v>
       </c>
       <c r="O7" t="n">
-        <v>6.604631465011463</v>
+        <v>6.60769260581059</v>
       </c>
       <c r="P7" t="n">
-        <v>371.283151471714</v>
+        <v>371.2865794332664</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29154,28 +29395,28 @@
         <v>0.0687</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07245609291140019</v>
+        <v>-0.074367047597488</v>
       </c>
       <c r="J8" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K8" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007185000508580508</v>
+        <v>0.007620075770458534</v>
       </c>
       <c r="M8" t="n">
-        <v>4.490194032914593</v>
+        <v>4.509386858879637</v>
       </c>
       <c r="N8" t="n">
-        <v>39.37783588061352</v>
+        <v>39.51882226940914</v>
       </c>
       <c r="O8" t="n">
-        <v>6.275176163313148</v>
+        <v>6.286399785999069</v>
       </c>
       <c r="P8" t="n">
-        <v>372.7961261006042</v>
+        <v>372.8152458375529</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29232,28 +29473,28 @@
         <v>0.0678</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08753871654289595</v>
+        <v>-0.08747078396566704</v>
       </c>
       <c r="J9" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K9" t="n">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008690692881532236</v>
+        <v>0.00885413600018814</v>
       </c>
       <c r="M9" t="n">
-        <v>5.046472602687696</v>
+        <v>5.020868950957455</v>
       </c>
       <c r="N9" t="n">
-        <v>47.7362879752388</v>
+        <v>47.3073995381189</v>
       </c>
       <c r="O9" t="n">
-        <v>6.909145242013573</v>
+        <v>6.878037477225527</v>
       </c>
       <c r="P9" t="n">
-        <v>367.8941095473493</v>
+        <v>367.8933973574683</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29310,28 +29551,28 @@
         <v>0.0576</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2389954307525906</v>
+        <v>-0.2526871355450306</v>
       </c>
       <c r="J10" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K10" t="n">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03347124893435749</v>
+        <v>0.03741946905651505</v>
       </c>
       <c r="M10" t="n">
-        <v>6.865196433949809</v>
+        <v>6.885387781447846</v>
       </c>
       <c r="N10" t="n">
-        <v>90.87358065164088</v>
+        <v>91.46661566213994</v>
       </c>
       <c r="O10" t="n">
-        <v>9.532763536962452</v>
+        <v>9.563818048360181</v>
       </c>
       <c r="P10" t="n">
-        <v>365.9798329139961</v>
+        <v>366.1156098410077</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29369,7 +29610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K614"/>
+  <dimension ref="A1:K619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59923,6 +60164,283 @@
         </is>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-36.622134478884426,174.76593048216958</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>-36.62181788186769,174.76673765632447</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-36.62149427134966,174.76754086515552</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>-36.621007006526526,174.76820760410135</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>-36.62035325704959,174.76868348155313</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>-36.6200599052704,174.76954149284177</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>-36.61947399164898,174.7700324099603</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>-36.6189131860703,174.77058017750278</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>-36.61837223753226,174.77121292368608</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-36.62199216285277,174.76584159015363</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-36.62171636442482,174.76667305268586</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-36.6214092609968,174.76747205694133</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-36.62104811251779,174.76824838015327</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>-36.62061900494384,174.7689729311351</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>-36.62013301419003,174.76963729838388</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>-36.619576815164685,174.7702138863589</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>-36.618939879988645,174.7706389089417</t>
+        </is>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>-36.61843345251476,174.77134760841068</t>
+        </is>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr"/>
+      <c r="C617" t="inlineStr"/>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-36.6215215233141,174.7675629232033</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-36.62097899250309,174.76817981496768</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>-36.620502520232606,174.76884605696446</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-36.620010835508424,174.7694771895623</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>-36.61951769556558,174.77010954423147</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>-36.61893400324339,174.77062597903225</t>
+        </is>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>-36.61832250250556,174.77110349748102</t>
+        </is>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-36.6219906261202,174.7658406302972</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>-36.62173133277076,174.76668257822462</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>-36.62140849289762,174.7674714352352</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>-36.620975027368544,174.76817588166648</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>-36.620523966072305,174.76886941555233</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>-36.62002202903485,174.76949185806419</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>-36.6194852893736,174.77005234961493</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>-36.61890977782677,174.7705726787594</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>-36.61830973475083,174.77107540613198</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-36.622050851394455,174.76587824755688</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>-36.621766615296906,174.76670503129517</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>-36.621434381833815,174.76749238997365</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>-36.621049074472886,174.7682493343879</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>-36.62058877762695,174.7689400077427</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>-36.620057220477996,174.76953797456258</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>-36.619541371322185,174.77015133031472</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>-36.61891474208144,174.7705836010052</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>-36.61833669872775,174.77113473174296</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K619"/>
+  <dimension ref="A1:K620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22360,6 +22360,45 @@
         <v>357.1118181818182</v>
       </c>
       <c r="K619" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>369.7654545454546</v>
+      </c>
+      <c r="C620" t="n">
+        <v>366.1866666666667</v>
+      </c>
+      <c r="D620" t="n">
+        <v>368.88</v>
+      </c>
+      <c r="E620" t="n">
+        <v>366.3366666666667</v>
+      </c>
+      <c r="F620" t="n">
+        <v>364.9566666666667</v>
+      </c>
+      <c r="G620" t="n">
+        <v>368.7666666666667</v>
+      </c>
+      <c r="H620" t="n">
+        <v>365.0830769230769</v>
+      </c>
+      <c r="I620" t="n">
+        <v>363.7730769230769</v>
+      </c>
+      <c r="J620" t="n">
+        <v>350.9854545454546</v>
+      </c>
+      <c r="K620" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22376,7 +22415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B637"/>
+  <dimension ref="A1:B638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28754,6 +28793,16 @@
       </c>
       <c r="B637" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -28927,28 +28976,28 @@
         <v>0.0593</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2596047452192514</v>
+        <v>-0.2577122979818154</v>
       </c>
       <c r="J2" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K2" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06125458601309819</v>
+        <v>0.06060731445498246</v>
       </c>
       <c r="M2" t="n">
-        <v>5.683283095649862</v>
+        <v>5.680142875970336</v>
       </c>
       <c r="N2" t="n">
-        <v>56.28040138626849</v>
+        <v>56.2122648338002</v>
       </c>
       <c r="O2" t="n">
-        <v>7.502026485308385</v>
+        <v>7.4974839002028</v>
       </c>
       <c r="P2" t="n">
-        <v>371.65195790695</v>
+        <v>371.6328909976344</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29005,28 +29054,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2138206467968842</v>
+        <v>-0.2120358959666549</v>
       </c>
       <c r="J3" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K3" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06068742046039721</v>
+        <v>0.05991198236958295</v>
       </c>
       <c r="M3" t="n">
-        <v>4.6987255738114</v>
+        <v>4.697400286220939</v>
       </c>
       <c r="N3" t="n">
-        <v>38.19868867296847</v>
+        <v>38.16283488832522</v>
       </c>
       <c r="O3" t="n">
-        <v>6.180508771368945</v>
+        <v>6.177607537576762</v>
       </c>
       <c r="P3" t="n">
-        <v>367.1631728436977</v>
+        <v>367.1451249864827</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29083,28 +29132,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1848441747538912</v>
+        <v>-0.1828588724940465</v>
       </c>
       <c r="J4" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K4" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04953092427260009</v>
+        <v>0.04863625771248747</v>
       </c>
       <c r="M4" t="n">
-        <v>4.41036783948348</v>
+        <v>4.41097096279768</v>
       </c>
       <c r="N4" t="n">
-        <v>35.24609419782132</v>
+        <v>35.23087641587145</v>
       </c>
       <c r="O4" t="n">
-        <v>5.936842106526105</v>
+        <v>5.935560328719728</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3905057815286</v>
+        <v>368.3702682939303</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29161,28 +29210,28 @@
         <v>0.0824</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2188698483438282</v>
+        <v>-0.2174970708819227</v>
       </c>
       <c r="J5" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K5" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07075472443096631</v>
+        <v>0.07014141301027677</v>
       </c>
       <c r="M5" t="n">
-        <v>4.283881002486122</v>
+        <v>4.281982547760411</v>
       </c>
       <c r="N5" t="n">
-        <v>33.55853528800937</v>
+        <v>33.51867421775504</v>
       </c>
       <c r="O5" t="n">
-        <v>5.792972923120682</v>
+        <v>5.789531433350634</v>
       </c>
       <c r="P5" t="n">
-        <v>368.3592281400864</v>
+        <v>368.3451926939114</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29239,28 +29288,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2346267440830239</v>
+        <v>-0.2345265351123819</v>
       </c>
       <c r="J6" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K6" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06282655133208592</v>
+        <v>0.06301096583312193</v>
       </c>
       <c r="M6" t="n">
-        <v>4.578049204381545</v>
+        <v>4.569686262893399</v>
       </c>
       <c r="N6" t="n">
-        <v>43.60202305843112</v>
+        <v>43.51814525454048</v>
       </c>
       <c r="O6" t="n">
-        <v>6.603182797593227</v>
+        <v>6.596828423912545</v>
       </c>
       <c r="P6" t="n">
-        <v>370.741592897903</v>
+        <v>370.7405677071208</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29317,28 +29366,28 @@
         <v>0.07969999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1015999750986684</v>
+        <v>-0.1015617139859275</v>
       </c>
       <c r="J7" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K7" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0127841005987166</v>
+        <v>0.01282610526108319</v>
       </c>
       <c r="M7" t="n">
-        <v>4.599445077737886</v>
+        <v>4.590429457442161</v>
       </c>
       <c r="N7" t="n">
-        <v>43.66160157288395</v>
+        <v>43.57447233745322</v>
       </c>
       <c r="O7" t="n">
-        <v>6.60769260581059</v>
+        <v>6.601096298150272</v>
       </c>
       <c r="P7" t="n">
-        <v>371.2865794332664</v>
+        <v>371.2861960040517</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29395,28 +29444,28 @@
         <v>0.0687</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.074367047597488</v>
+        <v>-0.07665648873169495</v>
       </c>
       <c r="J8" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K8" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007620075770458534</v>
+        <v>0.008112071808155985</v>
       </c>
       <c r="M8" t="n">
-        <v>4.509386858879637</v>
+        <v>4.512995380179731</v>
       </c>
       <c r="N8" t="n">
-        <v>39.51882226940914</v>
+        <v>39.50667326631463</v>
       </c>
       <c r="O8" t="n">
-        <v>6.286399785999069</v>
+        <v>6.285433419129872</v>
       </c>
       <c r="P8" t="n">
-        <v>372.8152458375529</v>
+        <v>372.8381953266281</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29473,28 +29522,28 @@
         <v>0.0678</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08747078396566704</v>
+        <v>-0.08823329244761184</v>
       </c>
       <c r="J9" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K9" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00885413600018814</v>
+        <v>0.009045367968846474</v>
       </c>
       <c r="M9" t="n">
-        <v>5.020868950957455</v>
+        <v>5.014143527591425</v>
       </c>
       <c r="N9" t="n">
-        <v>47.3073995381189</v>
+        <v>47.21390008485869</v>
       </c>
       <c r="O9" t="n">
-        <v>6.878037477225527</v>
+        <v>6.871237158245863</v>
       </c>
       <c r="P9" t="n">
-        <v>367.8933973574683</v>
+        <v>367.9009863735077</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29551,28 +29600,28 @@
         <v>0.0576</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2526871355450306</v>
+        <v>-0.2561451231812432</v>
       </c>
       <c r="J10" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K10" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03741946905651505</v>
+        <v>0.0385039555179828</v>
       </c>
       <c r="M10" t="n">
-        <v>6.885387781447846</v>
+        <v>6.89003236454153</v>
       </c>
       <c r="N10" t="n">
-        <v>91.46661566213994</v>
+        <v>91.42884461332829</v>
       </c>
       <c r="O10" t="n">
-        <v>9.563818048360181</v>
+        <v>9.561843159837348</v>
       </c>
       <c r="P10" t="n">
-        <v>366.1156098410077</v>
+        <v>366.1500692730649</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29610,7 +29659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K619"/>
+  <dimension ref="A1:K620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31286,7 +31335,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-36.61892290007239,174.77060155004858</t>
+          <t>-36.6189229000724,174.77060155004858</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -39268,7 +39317,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-36.62143554952196,174.76749333511142</t>
+          <t>-36.62143554952197,174.76749333511142</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -46411,7 +46460,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-36.62206519422806,174.76588720623266</t>
+          <t>-36.622065194228064,174.76588720623266</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -49931,7 +49980,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>-36.62203994791328,174.76587143713724</t>
+          <t>-36.62203994791327,174.76587143713724</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -57239,7 +57288,7 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>-36.618903628686844,174.77055914955974</t>
+          <t>-36.61890362868685,174.77055914955974</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
@@ -60441,6 +60490,63 @@
         </is>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-36.622047280321475,174.76587601702997</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>-36.6217602537509,174.76670098293695</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>-36.6214183405504,174.76747940601211</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>-36.620998442776404,174.76819910909603</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>-36.62056674486394,174.76891600982697</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>-36.62005490742599,174.76953494342996</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>-36.619544333282235,174.7701565579743</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>-36.61893072779148,174.77061877244387</t>
+        </is>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>-36.61836381558082,174.7711943938182</t>
+        </is>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K620"/>
+  <dimension ref="A1:K621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22401,6 +22401,45 @@
       <c r="K620" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>372.4718181818182</v>
+      </c>
+      <c r="C621" t="n">
+        <v>364.55</v>
+      </c>
+      <c r="D621" t="n">
+        <v>369.0264705882353</v>
+      </c>
+      <c r="E621" t="n">
+        <v>363.45</v>
+      </c>
+      <c r="F621" t="n">
+        <v>365.31</v>
+      </c>
+      <c r="G621" t="n">
+        <v>365.93</v>
+      </c>
+      <c r="H621" t="n">
+        <v>371.83</v>
+      </c>
+      <c r="I621" t="n">
+        <v>366.05</v>
+      </c>
+      <c r="J621" t="n">
+        <v>360.4218181818182</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -22415,7 +22454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B638"/>
+  <dimension ref="A1:B639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28803,6 +28842,16 @@
       </c>
       <c r="B638" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -28976,28 +29025,28 @@
         <v>0.0593</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2577122979818154</v>
+        <v>-0.2547758780152006</v>
       </c>
       <c r="J2" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K2" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06060731445498246</v>
+        <v>0.0594335352004588</v>
       </c>
       <c r="M2" t="n">
-        <v>5.680142875970336</v>
+        <v>5.681656842255108</v>
       </c>
       <c r="N2" t="n">
-        <v>56.2122648338002</v>
+        <v>56.2112998786321</v>
       </c>
       <c r="O2" t="n">
-        <v>7.4974839002028</v>
+        <v>7.497419547993302</v>
       </c>
       <c r="P2" t="n">
-        <v>371.6328909976344</v>
+        <v>371.6032740746007</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29054,28 +29103,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2120358959666549</v>
+        <v>-0.2109088639487212</v>
       </c>
       <c r="J3" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K3" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05991198236958295</v>
+        <v>0.05952180171836741</v>
       </c>
       <c r="M3" t="n">
-        <v>4.697400286220939</v>
+        <v>4.693078558182711</v>
       </c>
       <c r="N3" t="n">
-        <v>38.16283488832522</v>
+        <v>38.10247085261163</v>
       </c>
       <c r="O3" t="n">
-        <v>6.177607537576762</v>
+        <v>6.172719890989031</v>
       </c>
       <c r="P3" t="n">
-        <v>367.1451249864827</v>
+        <v>367.1337161441111</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29132,28 +29181,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1828588724940465</v>
+        <v>-0.180836092615474</v>
       </c>
       <c r="J4" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K4" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04863625771248747</v>
+        <v>0.04772365097308851</v>
       </c>
       <c r="M4" t="n">
-        <v>4.41097096279768</v>
+        <v>4.411749185369355</v>
       </c>
       <c r="N4" t="n">
-        <v>35.23087641587145</v>
+        <v>35.2181811420452</v>
       </c>
       <c r="O4" t="n">
-        <v>5.935560328719728</v>
+        <v>5.934490807309857</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3702682939303</v>
+        <v>368.3496268333164</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29210,28 +29259,28 @@
         <v>0.0824</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2174970708819227</v>
+        <v>-0.2172261744351217</v>
       </c>
       <c r="J5" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K5" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07014141301027677</v>
+        <v>0.07023515780523293</v>
       </c>
       <c r="M5" t="n">
-        <v>4.281982547760411</v>
+        <v>4.274948726952672</v>
       </c>
       <c r="N5" t="n">
-        <v>33.51867421775504</v>
+        <v>33.45470641142929</v>
       </c>
       <c r="O5" t="n">
-        <v>5.789531433350634</v>
+        <v>5.784004357832841</v>
       </c>
       <c r="P5" t="n">
-        <v>368.3451926939114</v>
+        <v>368.3424201101363</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29288,28 +29337,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2345265351123819</v>
+        <v>-0.2342918985114288</v>
       </c>
       <c r="J6" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K6" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06301096583312193</v>
+        <v>0.06312629932236391</v>
       </c>
       <c r="M6" t="n">
-        <v>4.569686262893399</v>
+        <v>4.56196619860969</v>
       </c>
       <c r="N6" t="n">
-        <v>43.51814525454048</v>
+        <v>43.43519427534526</v>
       </c>
       <c r="O6" t="n">
-        <v>6.596828423912545</v>
+        <v>6.590538238668012</v>
       </c>
       <c r="P6" t="n">
-        <v>370.7405677071208</v>
+        <v>370.7381647613194</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29366,28 +29415,28 @@
         <v>0.07969999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1015617139859275</v>
+        <v>-0.1026086513491148</v>
       </c>
       <c r="J7" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K7" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01282610526108319</v>
+        <v>0.0131365615849941</v>
       </c>
       <c r="M7" t="n">
-        <v>4.590429457442161</v>
+        <v>4.587625263342115</v>
       </c>
       <c r="N7" t="n">
-        <v>43.57447233745322</v>
+        <v>43.50248661986468</v>
       </c>
       <c r="O7" t="n">
-        <v>6.601096298150272</v>
+        <v>6.595641486608007</v>
       </c>
       <c r="P7" t="n">
-        <v>371.2861960040517</v>
+        <v>371.2966990125307</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29444,28 +29493,28 @@
         <v>0.0687</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07665648873169495</v>
+        <v>-0.07627619974285231</v>
       </c>
       <c r="J8" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K8" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008112071808155985</v>
+        <v>0.008065184102692968</v>
       </c>
       <c r="M8" t="n">
-        <v>4.512995380179731</v>
+        <v>4.50556891714708</v>
       </c>
       <c r="N8" t="n">
-        <v>39.50667326631463</v>
+        <v>39.42763259677832</v>
       </c>
       <c r="O8" t="n">
-        <v>6.285433419129872</v>
+        <v>6.279142664152354</v>
       </c>
       <c r="P8" t="n">
-        <v>372.8381953266281</v>
+        <v>372.8343791762865</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29522,28 +29571,28 @@
         <v>0.0678</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08823329244761184</v>
+        <v>-0.08805997711798907</v>
       </c>
       <c r="J9" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K9" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009045367968846474</v>
+        <v>0.009048936437369037</v>
       </c>
       <c r="M9" t="n">
-        <v>5.014143527591425</v>
+        <v>5.004374525862373</v>
       </c>
       <c r="N9" t="n">
-        <v>47.21390008485869</v>
+        <v>47.11382826036175</v>
       </c>
       <c r="O9" t="n">
-        <v>6.871237158245863</v>
+        <v>6.863951359119742</v>
       </c>
       <c r="P9" t="n">
-        <v>367.9009863735077</v>
+        <v>367.8992595571003</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29600,28 +29649,28 @@
         <v>0.0576</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2561451231812432</v>
+        <v>-0.2557928615976531</v>
       </c>
       <c r="J10" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K10" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0385039555179828</v>
+        <v>0.03855751609465774</v>
       </c>
       <c r="M10" t="n">
-        <v>6.89003236454153</v>
+        <v>6.877135929732101</v>
       </c>
       <c r="N10" t="n">
-        <v>91.42884461332829</v>
+        <v>91.23595753249661</v>
       </c>
       <c r="O10" t="n">
-        <v>9.561843159837348</v>
+        <v>9.551751542648951</v>
       </c>
       <c r="P10" t="n">
-        <v>366.1500692730649</v>
+        <v>366.146555033277</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29659,7 +29708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K620"/>
+  <dimension ref="A1:K621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60547,6 +60596,63 @@
         </is>
       </c>
     </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>-36.62202549531168,174.76586240990622</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>-36.62177337778052,174.76670933480278</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>-36.621417235020424,174.76747851118628</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>-36.62101876115231,174.768219264372</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>-36.620564351961086,174.76891340349678</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>-36.620072482488744,174.76955797462978</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>-36.61950936778693,174.77009484628698</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>-36.618920649475015,174.77059659832966</t>
+        </is>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>-36.618322047807844,174.77110249706408</t>
+        </is>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K621"/>
+  <dimension ref="A1:K625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22440,6 +22440,134 @@
       <c r="K621" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr"/>
+      <c r="C622" t="n">
+        <v>378.71</v>
+      </c>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="n">
+        <v>373.06</v>
+      </c>
+      <c r="G622" t="n">
+        <v>370.4</v>
+      </c>
+      <c r="H622" t="n">
+        <v>371.2884615384616</v>
+      </c>
+      <c r="I622" t="n">
+        <v>364.5584615384615</v>
+      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:21+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr"/>
+      <c r="H623" t="inlineStr"/>
+      <c r="I623" t="n">
+        <v>380.7984615384616</v>
+      </c>
+      <c r="J623" t="n">
+        <v>378.4336363636364</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr"/>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="n">
+        <v>356.93</v>
+      </c>
+      <c r="F624" t="n">
+        <v>363.25</v>
+      </c>
+      <c r="G624" t="n">
+        <v>382.79</v>
+      </c>
+      <c r="H624" t="n">
+        <v>376.9723076923077</v>
+      </c>
+      <c r="I624" t="n">
+        <v>357.9023076923077</v>
+      </c>
+      <c r="J624" t="n">
+        <v>344.3436363636364</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>356.7663636363636</v>
+      </c>
+      <c r="C625" t="n">
+        <v>355.2333333333333</v>
+      </c>
+      <c r="D625" t="n">
+        <v>356.3270588235294</v>
+      </c>
+      <c r="E625" t="n">
+        <v>347.8533333333333</v>
+      </c>
+      <c r="F625" t="n">
+        <v>348.6233333333333</v>
+      </c>
+      <c r="G625" t="n">
+        <v>358.4633333333333</v>
+      </c>
+      <c r="H625" t="n">
+        <v>353.5292307692308</v>
+      </c>
+      <c r="I625" t="n">
+        <v>353.1992307692308</v>
+      </c>
+      <c r="J625" t="n">
+        <v>340.2863636363636</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -22454,7 +22582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B639"/>
+  <dimension ref="A1:B643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28852,6 +28980,46 @@
       </c>
       <c r="B639" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -29025,28 +29193,28 @@
         <v>0.0593</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2547758780152006</v>
+        <v>-0.2580180619137359</v>
       </c>
       <c r="J2" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K2" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0594335352004588</v>
+        <v>0.06096313210858184</v>
       </c>
       <c r="M2" t="n">
-        <v>5.681656842255108</v>
+        <v>5.689132675616669</v>
       </c>
       <c r="N2" t="n">
-        <v>56.2112998786321</v>
+        <v>56.23406567872897</v>
       </c>
       <c r="O2" t="n">
-        <v>7.497419547993302</v>
+        <v>7.498937636674209</v>
       </c>
       <c r="P2" t="n">
-        <v>371.6032740746007</v>
+        <v>371.6361489235239</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29103,28 +29271,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2109088639487212</v>
+        <v>-0.2068250677350187</v>
       </c>
       <c r="J3" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K3" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05952180171836741</v>
+        <v>0.0568827654221763</v>
       </c>
       <c r="M3" t="n">
-        <v>4.693078558182711</v>
+        <v>4.718984690330134</v>
       </c>
       <c r="N3" t="n">
-        <v>38.10247085261163</v>
+        <v>38.61310849071471</v>
       </c>
       <c r="O3" t="n">
-        <v>6.172719890989031</v>
+        <v>6.213944680371294</v>
       </c>
       <c r="P3" t="n">
-        <v>367.1337161441111</v>
+        <v>367.0924502599817</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29181,28 +29349,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.180836092615474</v>
+        <v>-0.1836096577507185</v>
       </c>
       <c r="J4" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K4" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04772365097308851</v>
+        <v>0.04917454159053924</v>
       </c>
       <c r="M4" t="n">
-        <v>4.411749185369355</v>
+        <v>4.418855780277663</v>
       </c>
       <c r="N4" t="n">
-        <v>35.2181811420452</v>
+        <v>35.25375779326762</v>
       </c>
       <c r="O4" t="n">
-        <v>5.934490807309857</v>
+        <v>5.937487498367269</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3496268333164</v>
+        <v>368.3780790943825</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29259,28 +29427,28 @@
         <v>0.0824</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2172261744351217</v>
+        <v>-0.2250102218360428</v>
       </c>
       <c r="J5" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K5" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07023515780523293</v>
+        <v>0.07452464217435717</v>
       </c>
       <c r="M5" t="n">
-        <v>4.274948726952672</v>
+        <v>4.301943610683182</v>
       </c>
       <c r="N5" t="n">
-        <v>33.45470641142929</v>
+        <v>33.81165392107289</v>
       </c>
       <c r="O5" t="n">
-        <v>5.784004357832841</v>
+        <v>5.814778922802903</v>
       </c>
       <c r="P5" t="n">
-        <v>368.3424201101363</v>
+        <v>368.4224804624262</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29337,28 +29505,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2342918985114288</v>
+        <v>-0.237727659651268</v>
       </c>
       <c r="J6" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K6" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06312629932236391</v>
+        <v>0.06471445794731534</v>
       </c>
       <c r="M6" t="n">
-        <v>4.56196619860969</v>
+        <v>4.586939561240618</v>
       </c>
       <c r="N6" t="n">
-        <v>43.43519427534526</v>
+        <v>43.81513771673553</v>
       </c>
       <c r="O6" t="n">
-        <v>6.590538238668012</v>
+        <v>6.61930039481028</v>
       </c>
       <c r="P6" t="n">
-        <v>370.7381647613194</v>
+        <v>370.7736648153582</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29415,28 +29583,28 @@
         <v>0.07969999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1026086513491148</v>
+        <v>-0.1004498945994446</v>
       </c>
       <c r="J7" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K7" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0131365615849941</v>
+        <v>0.01257426029172848</v>
       </c>
       <c r="M7" t="n">
-        <v>4.587625263342115</v>
+        <v>4.610129513543775</v>
       </c>
       <c r="N7" t="n">
-        <v>43.50248661986468</v>
+        <v>43.85122301821481</v>
       </c>
       <c r="O7" t="n">
-        <v>6.595641486608007</v>
+        <v>6.622025597822377</v>
       </c>
       <c r="P7" t="n">
-        <v>371.2966990125307</v>
+        <v>371.2750135019155</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29493,28 +29661,28 @@
         <v>0.0687</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07627619974285231</v>
+        <v>-0.08047954605760391</v>
       </c>
       <c r="J8" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K8" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008065184102692968</v>
+        <v>0.008926474767266046</v>
       </c>
       <c r="M8" t="n">
-        <v>4.50556891714708</v>
+        <v>4.528682420347948</v>
       </c>
       <c r="N8" t="n">
-        <v>39.42763259677832</v>
+        <v>39.87330275024336</v>
       </c>
       <c r="O8" t="n">
-        <v>6.279142664152354</v>
+        <v>6.314531079204802</v>
       </c>
       <c r="P8" t="n">
-        <v>372.8343791762865</v>
+        <v>372.8768195862833</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29571,28 +29739,28 @@
         <v>0.0678</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08805997711798907</v>
+        <v>-0.09048970378438288</v>
       </c>
       <c r="J9" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K9" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009048936437369037</v>
+        <v>0.009524988257217148</v>
       </c>
       <c r="M9" t="n">
-        <v>5.004374525862373</v>
+        <v>5.038821859366918</v>
       </c>
       <c r="N9" t="n">
-        <v>47.11382826036175</v>
+        <v>47.65509273868612</v>
       </c>
       <c r="O9" t="n">
-        <v>6.863951359119742</v>
+        <v>6.903266816420043</v>
       </c>
       <c r="P9" t="n">
-        <v>367.8992595571003</v>
+        <v>367.9236781470987</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29649,28 +29817,28 @@
         <v>0.0576</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2557928615976531</v>
+        <v>-0.261956030993576</v>
       </c>
       <c r="J10" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K10" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03855751609465774</v>
+        <v>0.03999920422671011</v>
       </c>
       <c r="M10" t="n">
-        <v>6.877135929732101</v>
+        <v>6.947978573446854</v>
       </c>
       <c r="N10" t="n">
-        <v>91.23595753249661</v>
+        <v>92.67874280688164</v>
       </c>
       <c r="O10" t="n">
-        <v>9.551751542648951</v>
+        <v>9.626979942166788</v>
       </c>
       <c r="P10" t="n">
-        <v>366.146555033277</v>
+        <v>366.2084793473072</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29708,7 +29876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K621"/>
+  <dimension ref="A1:K625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60653,6 +60821,178 @@
         </is>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr"/>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>-36.62165983218164,174.7666370768012</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>-36.62051186610442,174.76885623638958</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>-36.62004478782246,174.7695216822268</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>-36.61951217427646,174.77009979954317</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>-36.61892725145375,174.7706111238721</t>
+        </is>
+      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:21+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr"/>
+      <c r="H623" t="inlineStr"/>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>-36.618855368437856,174.77045296863832</t>
+        </is>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>-36.61824232266189,174.77092708785517</t>
+        </is>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr"/>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>-36.62106465345172,174.76826478833718</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>-36.62057830303537,174.7689285988958</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>-36.619968023349756,174.7694210866413</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>-36.61948271808514,174.7700478114785</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>-36.618956713484906,174.77067594572665</t>
+        </is>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>-36.61839321393243,174.77125907573443</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-36.62215191712993,174.76594137429845</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-36.62184808583824,174.76675687755642</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>-36.621513087548465,174.76755609519722</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>-36.62112854131921,174.7683281635592</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>-36.62067736011673,174.76903649130475</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>-36.62011874350063,174.7696185973444</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>-36.619604210269266,174.7702622369922</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>-36.61897753061963,174.7707217473066</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>-36.61841117242019,174.7712985878567</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K625"/>
+  <dimension ref="A1:K630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22568,6 +22568,201 @@
       <c r="K625" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>366.3754545454545</v>
+      </c>
+      <c r="C626" t="n">
+        <v>366.0933333333334</v>
+      </c>
+      <c r="D626" t="n">
+        <v>369.6788235294118</v>
+      </c>
+      <c r="E626" t="n">
+        <v>363.5933333333334</v>
+      </c>
+      <c r="F626" t="n">
+        <v>366.3533333333334</v>
+      </c>
+      <c r="G626" t="n">
+        <v>366.5533333333333</v>
+      </c>
+      <c r="H626" t="n">
+        <v>365.4692307692308</v>
+      </c>
+      <c r="I626" t="n">
+        <v>367.5392307692308</v>
+      </c>
+      <c r="J626" t="n">
+        <v>347.9054545454546</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>370.5309090909091</v>
+      </c>
+      <c r="C627" t="n">
+        <v>365.9833333333333</v>
+      </c>
+      <c r="D627" t="n">
+        <v>371.2594117647059</v>
+      </c>
+      <c r="E627" t="n">
+        <v>364.4633333333333</v>
+      </c>
+      <c r="F627" t="n">
+        <v>366.7433333333333</v>
+      </c>
+      <c r="G627" t="n">
+        <v>366.6033333333334</v>
+      </c>
+      <c r="H627" t="n">
+        <v>365.5338461538461</v>
+      </c>
+      <c r="I627" t="n">
+        <v>364.3138461538462</v>
+      </c>
+      <c r="J627" t="n">
+        <v>352.2309090909091</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>362.5945454545454</v>
+      </c>
+      <c r="C628" t="n">
+        <v>357.6266666666667</v>
+      </c>
+      <c r="D628" t="n">
+        <v>361.3711764705882</v>
+      </c>
+      <c r="E628" t="n">
+        <v>361.6266666666667</v>
+      </c>
+      <c r="F628" t="n">
+        <v>357.7066666666666</v>
+      </c>
+      <c r="G628" t="n">
+        <v>364.7966666666667</v>
+      </c>
+      <c r="H628" t="n">
+        <v>366.4407692307692</v>
+      </c>
+      <c r="I628" t="n">
+        <v>360.3707692307692</v>
+      </c>
+      <c r="J628" t="n">
+        <v>343.4745454545454</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>369.2927272727272</v>
+      </c>
+      <c r="C629" t="n">
+        <v>358.2</v>
+      </c>
+      <c r="D629" t="n">
+        <v>361.21</v>
+      </c>
+      <c r="E629" t="n">
+        <v>356.91</v>
+      </c>
+      <c r="F629" t="n">
+        <v>359.45</v>
+      </c>
+      <c r="G629" t="n">
+        <v>359.46</v>
+      </c>
+      <c r="H629" t="n">
+        <v>366.7361538461539</v>
+      </c>
+      <c r="I629" t="n">
+        <v>359.6961538461539</v>
+      </c>
+      <c r="J629" t="n">
+        <v>345.5627272727273</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>364.4163636363636</v>
+      </c>
+      <c r="C630" t="n">
+        <v>361.37</v>
+      </c>
+      <c r="D630" t="n">
+        <v>362.2917647058824</v>
+      </c>
+      <c r="E630" t="n">
+        <v>360.17</v>
+      </c>
+      <c r="F630" t="n">
+        <v>363.03</v>
+      </c>
+      <c r="G630" t="n">
+        <v>361.26</v>
+      </c>
+      <c r="H630" t="n">
+        <v>362.7138461538461</v>
+      </c>
+      <c r="I630" t="n">
+        <v>355.5838461538461</v>
+      </c>
+      <c r="J630" t="n">
+        <v>352.9963636363636</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -22582,7 +22777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B643"/>
+  <dimension ref="A1:B648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29020,6 +29215,56 @@
       </c>
       <c r="B643" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -29193,28 +29438,28 @@
         <v>0.0593</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2580180619137359</v>
+        <v>-0.2547614272359667</v>
       </c>
       <c r="J2" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K2" t="n">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06096313210858184</v>
+        <v>0.06056985915514446</v>
       </c>
       <c r="M2" t="n">
-        <v>5.689132675616669</v>
+        <v>5.658114840348866</v>
       </c>
       <c r="N2" t="n">
-        <v>56.23406567872897</v>
+        <v>55.78320263335529</v>
       </c>
       <c r="O2" t="n">
-        <v>7.498937636674209</v>
+        <v>7.468815343369743</v>
       </c>
       <c r="P2" t="n">
-        <v>371.6361489235239</v>
+        <v>371.6030890468062</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29271,28 +29516,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2068250677350187</v>
+        <v>-0.2065850627010297</v>
       </c>
       <c r="J3" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K3" t="n">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0568827654221763</v>
+        <v>0.0576760227306542</v>
       </c>
       <c r="M3" t="n">
-        <v>4.718984690330134</v>
+        <v>4.704938716133739</v>
       </c>
       <c r="N3" t="n">
-        <v>38.61310849071471</v>
+        <v>38.36144988209168</v>
       </c>
       <c r="O3" t="n">
-        <v>6.213944680371294</v>
+        <v>6.193662073611352</v>
       </c>
       <c r="P3" t="n">
-        <v>367.0924502599817</v>
+        <v>367.0900400400146</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29349,28 +29594,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1836096577507185</v>
+        <v>-0.1807659096658442</v>
       </c>
       <c r="J4" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K4" t="n">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04917454159053924</v>
+        <v>0.04836266353811136</v>
       </c>
       <c r="M4" t="n">
-        <v>4.418855780277663</v>
+        <v>4.412823486405606</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25375779326762</v>
+        <v>35.12097261126548</v>
       </c>
       <c r="O4" t="n">
-        <v>5.937487498367269</v>
+        <v>5.926295015544322</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3780790943825</v>
+        <v>368.3489084847662</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29427,28 +29672,28 @@
         <v>0.0824</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2250102218360428</v>
+        <v>-0.2272774220007623</v>
       </c>
       <c r="J5" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K5" t="n">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07452464217435717</v>
+        <v>0.0771289831627493</v>
       </c>
       <c r="M5" t="n">
-        <v>4.301943610683182</v>
+        <v>4.284830114689512</v>
       </c>
       <c r="N5" t="n">
-        <v>33.81165392107289</v>
+        <v>33.57098923081184</v>
       </c>
       <c r="O5" t="n">
-        <v>5.814778922802903</v>
+        <v>5.79404774150264</v>
       </c>
       <c r="P5" t="n">
-        <v>368.4224804624262</v>
+        <v>368.445875385635</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29505,28 +29750,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.237727659651268</v>
+        <v>-0.2412931524387195</v>
       </c>
       <c r="J6" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K6" t="n">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06471445794731534</v>
+        <v>0.0675311938699964</v>
       </c>
       <c r="M6" t="n">
-        <v>4.586939561240618</v>
+        <v>4.578384056824746</v>
       </c>
       <c r="N6" t="n">
-        <v>43.81513771673553</v>
+        <v>43.5586217170237</v>
       </c>
       <c r="O6" t="n">
-        <v>6.61930039481028</v>
+        <v>6.599895583797043</v>
       </c>
       <c r="P6" t="n">
-        <v>370.7736648153582</v>
+        <v>370.8104632371168</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29583,28 +29828,28 @@
         <v>0.07969999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1004498945994446</v>
+        <v>-0.1095824313723048</v>
       </c>
       <c r="J7" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K7" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01257426029172848</v>
+        <v>0.01511700948516403</v>
       </c>
       <c r="M7" t="n">
-        <v>4.610129513543775</v>
+        <v>4.619786218373411</v>
       </c>
       <c r="N7" t="n">
-        <v>43.85122301821481</v>
+        <v>43.73461306766677</v>
       </c>
       <c r="O7" t="n">
-        <v>6.622025597822377</v>
+        <v>6.613215032619669</v>
       </c>
       <c r="P7" t="n">
-        <v>371.2750135019155</v>
+        <v>371.3673293793433</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29661,28 +29906,28 @@
         <v>0.0687</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08047954605760391</v>
+        <v>-0.09072218170740234</v>
       </c>
       <c r="J8" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K8" t="n">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008926474767266046</v>
+        <v>0.01145754403267563</v>
       </c>
       <c r="M8" t="n">
-        <v>4.528682420347948</v>
+        <v>4.541455654406751</v>
       </c>
       <c r="N8" t="n">
-        <v>39.87330275024336</v>
+        <v>39.77783393930421</v>
       </c>
       <c r="O8" t="n">
-        <v>6.314531079204802</v>
+        <v>6.306967095149951</v>
       </c>
       <c r="P8" t="n">
-        <v>372.8768195862833</v>
+        <v>372.9803631595594</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29739,28 +29984,28 @@
         <v>0.0678</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09048970378438288</v>
+        <v>-0.09844292116867707</v>
       </c>
       <c r="J9" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K9" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009524988257217148</v>
+        <v>0.0114074606788156</v>
       </c>
       <c r="M9" t="n">
-        <v>5.038821859366918</v>
+        <v>5.036107633710881</v>
       </c>
       <c r="N9" t="n">
-        <v>47.65509273868612</v>
+        <v>47.50062849770706</v>
       </c>
       <c r="O9" t="n">
-        <v>6.903266816420043</v>
+        <v>6.892069971910257</v>
       </c>
       <c r="P9" t="n">
-        <v>367.9236781470987</v>
+        <v>368.0035649671108</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29817,28 +30062,28 @@
         <v>0.0576</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.261956030993576</v>
+        <v>-0.2831104776486164</v>
       </c>
       <c r="J10" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K10" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03999920422671011</v>
+        <v>0.04666773633674204</v>
       </c>
       <c r="M10" t="n">
-        <v>6.947978573446854</v>
+        <v>6.996028576212664</v>
       </c>
       <c r="N10" t="n">
-        <v>92.67874280688164</v>
+        <v>93.07393481696319</v>
       </c>
       <c r="O10" t="n">
-        <v>9.626979942166788</v>
+        <v>9.647483341108353</v>
       </c>
       <c r="P10" t="n">
-        <v>366.2084793473072</v>
+        <v>366.4210871596138</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29876,7 +30121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K625"/>
+  <dimension ref="A1:K630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60993,6 +61238,291 @@
         </is>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-36.62207456829387,174.76589306136904</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-36.62176100216808,174.76670145921437</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>-36.621412311194085,174.76747452579767</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>-36.62101775227231,174.76821826359014</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>-36.62055728612493,174.7689057074473</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>-36.62006862051885,174.76955291371894</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>-36.61954233206565,174.770153025962</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>-36.61891405770893,174.77058209526342</t>
+        </is>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>-36.61837744843717,174.7712243886565</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-36.62204111875692,174.76587216845738</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>-36.62176188423119,174.76670202054132</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>-36.62140038123729,174.76746486958777</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>-36.621011628605075,174.76821218907762</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>-36.62055464490168,174.76890283064958</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>-36.62006831073514,174.76955250776354</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>-36.61954199720071,174.770152434948</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>-36.6189283341917,174.77061350609122</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>-36.61835830288284,174.7711822648576</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-36.62210500290488,174.76591207114657</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-36.62182889428924,174.7667446644179</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-36.621475015600716,174.76752527934667</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-36.6210315950437,174.76823199525043</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-36.62061584450789,174.76896948880758</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>-36.620079504251606,174.76956717628715</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>-36.6195372971318,174.77014413964494</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>-36.61894578737595,174.77065190627442</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>-36.61839706074386,174.77126753945439</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-36.62205108556317,174.76587839382094</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-36.62182429687059,174.76674173870873</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-36.621476232127236,174.7675262640159</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-36.62106479422561,174.7682649279813</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-36.620604038021185,174.76895662925799</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>-36.620112568483556,174.76961050529036</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>-36.61953576632042,174.77014143786707</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>-36.61894877341496,174.77065847610848</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>-36.61838781793332,174.7712472035094</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-36.62209033809156,174.76590291134804</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-36.62179887742062,174.76672556226518</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-36.621468067191785,174.76751965523263</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-36.621041848078335,174.76824216599184</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-36.62057979295579,174.76893022170574</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-36.6201014162773,174.76959589088162</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>-36.61955661166046,174.7701782284921</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>-36.618966975646835,174.7706985243893</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>-36.61835491478608,174.77117481041697</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K630"/>
+  <dimension ref="A1:K633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22763,6 +22763,121 @@
       <c r="K630" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>363.6663636363636</v>
+      </c>
+      <c r="C631" t="n">
+        <v>362.1866666666667</v>
+      </c>
+      <c r="D631" t="n">
+        <v>363.4676470588236</v>
+      </c>
+      <c r="E631" t="n">
+        <v>361.8666666666666</v>
+      </c>
+      <c r="F631" t="n">
+        <v>358.3266666666667</v>
+      </c>
+      <c r="G631" t="n">
+        <v>366.9066666666666</v>
+      </c>
+      <c r="H631" t="n">
+        <v>368.7707692307693</v>
+      </c>
+      <c r="I631" t="n">
+        <v>363.2707692307693</v>
+      </c>
+      <c r="J631" t="n">
+        <v>356.2063636363636</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr"/>
+      <c r="C632" t="n">
+        <v>363.7733333333334</v>
+      </c>
+      <c r="D632" t="n">
+        <v>367.5611764705882</v>
+      </c>
+      <c r="E632" t="n">
+        <v>361.5633333333333</v>
+      </c>
+      <c r="F632" t="n">
+        <v>368.4433333333333</v>
+      </c>
+      <c r="G632" t="n">
+        <v>367.3833333333333</v>
+      </c>
+      <c r="H632" t="n">
+        <v>368.3438461538461</v>
+      </c>
+      <c r="I632" t="n">
+        <v>361.5838461538461</v>
+      </c>
+      <c r="J632" t="n">
+        <v>357.63</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>367.2345454545454</v>
+      </c>
+      <c r="C633" t="n">
+        <v>360.7166666666667</v>
+      </c>
+      <c r="D633" t="n">
+        <v>362.6741176470589</v>
+      </c>
+      <c r="E633" t="n">
+        <v>359.4866666666667</v>
+      </c>
+      <c r="F633" t="n">
+        <v>361.1566666666667</v>
+      </c>
+      <c r="G633" t="n">
+        <v>361.5266666666667</v>
+      </c>
+      <c r="H633" t="n">
+        <v>364.64</v>
+      </c>
+      <c r="I633" t="n">
+        <v>359.24</v>
+      </c>
+      <c r="J633" t="n">
+        <v>360.0045454545455</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -22777,7 +22892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B648"/>
+  <dimension ref="A1:B651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29265,6 +29380,36 @@
       </c>
       <c r="B648" t="n">
         <v>-0.9</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -29438,28 +29583,28 @@
         <v>0.0593</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2547614272359667</v>
+        <v>-0.2543916423404818</v>
       </c>
       <c r="J2" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K2" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06056985915514446</v>
+        <v>0.06085351530537408</v>
       </c>
       <c r="M2" t="n">
-        <v>5.658114840348866</v>
+        <v>5.642327178918796</v>
       </c>
       <c r="N2" t="n">
-        <v>55.78320263335529</v>
+        <v>55.57298782959457</v>
       </c>
       <c r="O2" t="n">
-        <v>7.468815343369743</v>
+        <v>7.454729225773031</v>
       </c>
       <c r="P2" t="n">
-        <v>371.6030890468062</v>
+        <v>371.5992957047613</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29516,28 +29661,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2065850627010297</v>
+        <v>-0.2060079610729093</v>
       </c>
       <c r="J3" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K3" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0576760227306542</v>
+        <v>0.0580132230470437</v>
       </c>
       <c r="M3" t="n">
-        <v>4.704938716133739</v>
+        <v>4.683698049564173</v>
       </c>
       <c r="N3" t="n">
-        <v>38.36144988209168</v>
+        <v>38.14472831607209</v>
       </c>
       <c r="O3" t="n">
-        <v>6.193662073611352</v>
+        <v>6.176141863337668</v>
       </c>
       <c r="P3" t="n">
-        <v>367.0900400400146</v>
+        <v>367.0841462917783</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29594,28 +29739,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1807659096658442</v>
+        <v>-0.1797566127022526</v>
       </c>
       <c r="J4" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K4" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04836266353811136</v>
+        <v>0.04833934207514223</v>
       </c>
       <c r="M4" t="n">
-        <v>4.412823486405606</v>
+        <v>4.396712975824854</v>
       </c>
       <c r="N4" t="n">
-        <v>35.12097261126548</v>
+        <v>34.95026776584396</v>
       </c>
       <c r="O4" t="n">
-        <v>5.926295015544322</v>
+        <v>5.911875148025706</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3489084847662</v>
+        <v>368.3385066211461</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29672,28 +29817,28 @@
         <v>0.0824</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2272774220007623</v>
+        <v>-0.2289817590985189</v>
       </c>
       <c r="J5" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K5" t="n">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0771289831627493</v>
+        <v>0.07899311619051219</v>
       </c>
       <c r="M5" t="n">
-        <v>4.284830114689512</v>
+        <v>4.270089326167442</v>
       </c>
       <c r="N5" t="n">
-        <v>33.57098923081184</v>
+        <v>33.39943396377628</v>
       </c>
       <c r="O5" t="n">
-        <v>5.79404774150264</v>
+        <v>5.77922433928432</v>
       </c>
       <c r="P5" t="n">
-        <v>368.445875385635</v>
+        <v>368.4635211774253</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29750,28 +29895,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2412931524387195</v>
+        <v>-0.2433416286906968</v>
       </c>
       <c r="J6" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K6" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0675311938699964</v>
+        <v>0.06916072936000994</v>
       </c>
       <c r="M6" t="n">
-        <v>4.578384056824746</v>
+        <v>4.578936285148973</v>
       </c>
       <c r="N6" t="n">
-        <v>43.5586217170237</v>
+        <v>43.43496470685163</v>
       </c>
       <c r="O6" t="n">
-        <v>6.599895583797043</v>
+        <v>6.590520822124123</v>
       </c>
       <c r="P6" t="n">
-        <v>370.8104632371168</v>
+        <v>370.8316574455824</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29828,28 +29973,28 @@
         <v>0.07969999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1095824313723048</v>
+        <v>-0.1131511762325824</v>
       </c>
       <c r="J7" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K7" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01511700948516403</v>
+        <v>0.01625123231970382</v>
       </c>
       <c r="M7" t="n">
-        <v>4.619786218373411</v>
+        <v>4.61392520103303</v>
       </c>
       <c r="N7" t="n">
-        <v>43.73461306766677</v>
+        <v>43.58043505726738</v>
       </c>
       <c r="O7" t="n">
-        <v>6.613215032619669</v>
+        <v>6.601547928877543</v>
       </c>
       <c r="P7" t="n">
-        <v>371.3673293793433</v>
+        <v>371.4035623987648</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29906,28 +30051,28 @@
         <v>0.0687</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09072218170740234</v>
+        <v>-0.09451123626860927</v>
       </c>
       <c r="J8" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K8" t="n">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01145754403267563</v>
+        <v>0.01254282270059537</v>
       </c>
       <c r="M8" t="n">
-        <v>4.541455654406751</v>
+        <v>4.535833311344208</v>
       </c>
       <c r="N8" t="n">
-        <v>39.77783393930421</v>
+        <v>39.62627548411313</v>
       </c>
       <c r="O8" t="n">
-        <v>6.306967095149951</v>
+        <v>6.294940467082522</v>
       </c>
       <c r="P8" t="n">
-        <v>372.9803631595594</v>
+        <v>373.0188357328361</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29984,28 +30129,28 @@
         <v>0.0678</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09844292116867707</v>
+        <v>-0.1031604723885622</v>
       </c>
       <c r="J9" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K9" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0114074606788156</v>
+        <v>0.01263548469316167</v>
       </c>
       <c r="M9" t="n">
-        <v>5.036107633710881</v>
+        <v>5.029365712435971</v>
       </c>
       <c r="N9" t="n">
-        <v>47.50062849770706</v>
+        <v>47.32344238464753</v>
       </c>
       <c r="O9" t="n">
-        <v>6.892069971910257</v>
+        <v>6.879203615582805</v>
       </c>
       <c r="P9" t="n">
-        <v>368.0035649671108</v>
+        <v>368.0511197592577</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30062,28 +30207,28 @@
         <v>0.0576</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2831104776486164</v>
+        <v>-0.2843697332280133</v>
       </c>
       <c r="J10" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K10" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04666773633674204</v>
+        <v>0.0476004913344189</v>
       </c>
       <c r="M10" t="n">
-        <v>6.996028576212664</v>
+        <v>6.963669318653916</v>
       </c>
       <c r="N10" t="n">
-        <v>93.07393481696319</v>
+        <v>92.51637060933031</v>
       </c>
       <c r="O10" t="n">
-        <v>9.647483341108353</v>
+        <v>9.61854306063711</v>
       </c>
       <c r="P10" t="n">
-        <v>366.4210871596138</v>
+        <v>366.4337678028141</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30121,7 +30266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K630"/>
+  <dimension ref="A1:K633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61523,6 +61668,173 @@
         </is>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-36.62209637525283,174.76590668222275</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-36.62179232877115,174.76672139483406</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-36.62145919187541,174.76751247146166</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>-36.62102990575644,174.76823031952216</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>-36.62061164564282,174.76896491543002</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>-36.62006643138072,174.76955004496756</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>-36.61952522205799,174.77012282796758</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>-36.618932951149226,174.77062366423402</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>-36.618340706503226,174.77114354958084</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr"/>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-36.62177960568028,174.7667132981128</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-36.62142829475967,174.76748746303934</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-36.62103204082784,174.76823243745653</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>-36.6205431318764,174.76889029076452</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>-36.62006347810936,174.76954617485984</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>-36.61952743455944,174.77012673287993</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>-36.61894041795251,174.77064009256037</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>-36.618334405121004,174.77112968539038</t>
+        </is>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-36.62206765299945,174.76588874200598</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-36.62180411634007,174.7667288962106</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-36.62146518127105,174.76751731933894</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-36.62104665785399,174.76824693716438</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>-36.620592479853016,174.7689440401807</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>-36.620099764098434,174.76959372578443</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>-36.61954662949873,174.77016061064205</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>-36.618950792481016,174.77066291842527</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>-36.61832389476584,174.77110656070462</t>
+        </is>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K633"/>
+  <dimension ref="A1:K634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22876,6 +22876,45 @@
         <v>360.0045454545455</v>
       </c>
       <c r="K633" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>359.6363636363636</v>
+      </c>
+      <c r="C634" t="n">
+        <v>354.89</v>
+      </c>
+      <c r="D634" t="n">
+        <v>356.8317647058824</v>
+      </c>
+      <c r="E634" t="n">
+        <v>356.29</v>
+      </c>
+      <c r="F634" t="n">
+        <v>358.18</v>
+      </c>
+      <c r="G634" t="n">
+        <v>363.21</v>
+      </c>
+      <c r="H634" t="n">
+        <v>362.3138461538462</v>
+      </c>
+      <c r="I634" t="n">
+        <v>355.6838461538461</v>
+      </c>
+      <c r="J634" t="n">
+        <v>350.9063636363636</v>
+      </c>
+      <c r="K634" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22892,7 +22931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B651"/>
+  <dimension ref="A1:B652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29410,6 +29449,16 @@
       </c>
       <c r="B651" t="n">
         <v>-0.91</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -30266,7 +30315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K633"/>
+  <dimension ref="A1:K634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61835,6 +61884,63 @@
         </is>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-36.622128814930335,174.76592694439987</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-36.62185083894335,174.76675862958098</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-36.62150927813416,174.76755301181396</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>-36.621069158216265,174.76826925695016</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>-36.620612638922736,174.7689659973042</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>-36.620089334718344,174.7695800586103</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>-36.619558684633,174.77018188715164</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>-36.61896653301885,174.77069755052517</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>-36.61836416565722,174.77119516405153</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -29632,28 +29632,28 @@
         <v>0.0593</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2543916423404818</v>
+        <v>-0.2564235656740015</v>
       </c>
       <c r="J2" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K2" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06085351530537408</v>
+        <v>0.06194663069517137</v>
       </c>
       <c r="M2" t="n">
-        <v>5.642327178918796</v>
+        <v>5.643066016644222</v>
       </c>
       <c r="N2" t="n">
-        <v>55.57298782959457</v>
+        <v>55.51801983080422</v>
       </c>
       <c r="O2" t="n">
-        <v>7.454729225773031</v>
+        <v>7.451041526578967</v>
       </c>
       <c r="P2" t="n">
-        <v>371.5992957047613</v>
+        <v>371.6200937338454</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29710,28 +29710,28 @@
         <v>0.0786</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2060079610729093</v>
+        <v>-0.2085788468461698</v>
       </c>
       <c r="J3" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K3" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0580132230470437</v>
+        <v>0.05947467675861529</v>
       </c>
       <c r="M3" t="n">
-        <v>4.683698049564173</v>
+        <v>4.689212646574548</v>
       </c>
       <c r="N3" t="n">
-        <v>38.14472831607209</v>
+        <v>38.16056856587399</v>
       </c>
       <c r="O3" t="n">
-        <v>6.176141863337668</v>
+        <v>6.177424104420385</v>
       </c>
       <c r="P3" t="n">
-        <v>367.0841462917783</v>
+        <v>367.1105532070766</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29788,28 +29788,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1797566127022526</v>
+        <v>-0.1822466437379542</v>
       </c>
       <c r="J4" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K4" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04833934207514223</v>
+        <v>0.04968381922868881</v>
       </c>
       <c r="M4" t="n">
-        <v>4.396712975824854</v>
+        <v>4.402352481348158</v>
       </c>
       <c r="N4" t="n">
-        <v>34.95026776584396</v>
+        <v>34.97169800213793</v>
       </c>
       <c r="O4" t="n">
-        <v>5.911875148025706</v>
+        <v>5.913687343962135</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3385066211461</v>
+        <v>368.3642901960422</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29866,28 +29866,28 @@
         <v>0.0824</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2289817590985189</v>
+        <v>-0.231241213837196</v>
       </c>
       <c r="J5" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K5" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07899311619051219</v>
+        <v>0.08055821560793663</v>
       </c>
       <c r="M5" t="n">
-        <v>4.270089326167442</v>
+        <v>4.274809193005287</v>
       </c>
       <c r="N5" t="n">
-        <v>33.39943396377628</v>
+        <v>33.40846880936378</v>
       </c>
       <c r="O5" t="n">
-        <v>5.77922433928432</v>
+        <v>5.780005952364044</v>
       </c>
       <c r="P5" t="n">
-        <v>368.4635211774253</v>
+        <v>368.4869833465133</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29944,28 +29944,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2433416286906968</v>
+        <v>-0.2456258967695078</v>
       </c>
       <c r="J6" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K6" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06916072936000994</v>
+        <v>0.07051271817311977</v>
       </c>
       <c r="M6" t="n">
-        <v>4.578936285148973</v>
+        <v>4.583233539795656</v>
       </c>
       <c r="N6" t="n">
-        <v>43.43496470685163</v>
+        <v>43.42746370976226</v>
       </c>
       <c r="O6" t="n">
-        <v>6.590520822124123</v>
+        <v>6.589951722870378</v>
       </c>
       <c r="P6" t="n">
-        <v>370.8316574455824</v>
+        <v>370.8553898114407</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30022,28 +30022,28 @@
         <v>0.07969999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1131511762325824</v>
+        <v>-0.1150726893083805</v>
       </c>
       <c r="J7" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K7" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01625123231970382</v>
+        <v>0.01684301165763347</v>
       </c>
       <c r="M7" t="n">
-        <v>4.61392520103303</v>
+        <v>4.616259844836036</v>
       </c>
       <c r="N7" t="n">
-        <v>43.58043505726738</v>
+        <v>43.54874341113958</v>
       </c>
       <c r="O7" t="n">
-        <v>6.601547928877543</v>
+        <v>6.5991471730171</v>
       </c>
       <c r="P7" t="n">
-        <v>371.4035623987648</v>
+        <v>371.4231283441247</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30100,28 +30100,28 @@
         <v>0.0687</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09451123626860927</v>
+        <v>-0.0976013509744684</v>
       </c>
       <c r="J8" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K8" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01254282270059537</v>
+        <v>0.01337297686842054</v>
       </c>
       <c r="M8" t="n">
-        <v>4.535833311344208</v>
+        <v>4.544412035846607</v>
       </c>
       <c r="N8" t="n">
-        <v>39.62627548411313</v>
+        <v>39.68192440279923</v>
       </c>
       <c r="O8" t="n">
-        <v>6.294940467082522</v>
+        <v>6.299359046982417</v>
       </c>
       <c r="P8" t="n">
-        <v>373.0188357328361</v>
+        <v>373.0503128287236</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30178,28 +30178,28 @@
         <v>0.0678</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1031604723885622</v>
+        <v>-0.106893312256816</v>
       </c>
       <c r="J9" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K9" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01263548469316167</v>
+        <v>0.01355448475579579</v>
       </c>
       <c r="M9" t="n">
-        <v>5.029365712435971</v>
+        <v>5.038295524608457</v>
       </c>
       <c r="N9" t="n">
-        <v>47.32344238464753</v>
+        <v>47.41802672296144</v>
       </c>
       <c r="O9" t="n">
-        <v>6.879203615582805</v>
+        <v>6.886074841516133</v>
       </c>
       <c r="P9" t="n">
-        <v>368.0511197592577</v>
+        <v>368.0888772840513</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30256,28 +30256,28 @@
         <v>0.0576</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2843697332280133</v>
+        <v>-0.2874632875840167</v>
       </c>
       <c r="J10" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K10" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0476004913344189</v>
+        <v>0.04871041595822456</v>
       </c>
       <c r="M10" t="n">
-        <v>6.963669318653916</v>
+        <v>6.966939666270399</v>
       </c>
       <c r="N10" t="n">
-        <v>92.51637060933031</v>
+        <v>92.45981947435467</v>
       </c>
       <c r="O10" t="n">
-        <v>9.61854306063711</v>
+        <v>9.61560291788064</v>
       </c>
       <c r="P10" t="n">
-        <v>366.4337678028141</v>
+        <v>366.4651088887224</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0144/nzd0144.xlsx
+++ b/data/nzd0144/nzd0144.xlsx
@@ -29623,13 +29623,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0536</v>
+        <v>0.0547</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0593</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2564345102935388</v>
@@ -29701,13 +29701,13 @@
         <v>0.8749024354752621</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0696</v>
+        <v>0.0822</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0786</v>
+        <v>0.1139</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2085699327751997</v>
@@ -29779,13 +29779,13 @@
         <v>0.7499870851533325</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08169999999999999</v>
+        <v>0.0796</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09130000000000001</v>
+        <v>0.098</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1822412600638532</v>
@@ -29857,13 +29857,13 @@
         <v>0.6248895206311462</v>
       </c>
       <c r="F5" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0709</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0824</v>
+        <v>0.0948</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2312311686949795</v>
@@ -29935,13 +29935,13 @@
         <v>0.4997919561082442</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0687</v>
+        <v>0.0643</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07770000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2456131971558622</v>
@@ -30013,13 +30013,13 @@
         <v>0.3751663737752356</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0692</v>
+        <v>0.076</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.0954</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1150695306665856</v>
@@ -30091,13 +30091,13 @@
         <v>0.2501951290467126</v>
       </c>
       <c r="F8" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0597</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0687</v>
+        <v>0.079</v>
       </c>
       <c r="I8" t="n">
         <v>-0.09758893770078184</v>
@@ -30169,13 +30169,13 @@
         <v>0.1250975645233563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0592</v>
+        <v>0.0688</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0678</v>
+        <v>0.0886</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1068695121464352</v>
@@ -30247,13 +30247,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0533</v>
+        <v>0.0644</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0576</v>
+        <v>0.1089</v>
       </c>
       <c r="I10" t="n">
         <v>-0.2874935892983431</v>
